--- a/app/excel/MULTIPLE_CHOICE.xlsx
+++ b/app/excel/MULTIPLE_CHOICE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="1033">
   <si>
     <t>完全不像我</t>
   </si>
@@ -3681,59 +3681,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>on</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>under</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>next to</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>around</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>with</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>see</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>watch</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>look</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>boar</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dog</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>elephant</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>duck</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>eagle</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>pigeon</t>
+    <t>F1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3745,51 +3713,287 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">The man is [h]in[-h] the car. </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I never [h]read[-h] books.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>He was as proud as a [h]peacock[-h].</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Language</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>English</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blank1H1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blank1H2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blank1H3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blank1H4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blank1H5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blank1H6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The man is [h]in[-h] the [h]car[-h]. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speaker</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>nobody</t>
+  </si>
+  <si>
+    <t>It's</t>
+  </si>
+  <si>
+    <t>That's</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>There are</t>
+  </si>
+  <si>
+    <t>anybody</t>
+  </si>
+  <si>
+    <t>nowhere</t>
+  </si>
+  <si>
+    <t>anything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[f]Everybody[-f] loves her, she is so sweet. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f]There is[-f] a crowd in the street.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>All people</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>All the people</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nobody</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>They owe me [f]nothing[-f].</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f]That is[-f] good news to me, said Tom.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Those are</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>These are</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here is</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>There isn't [f]enough sugar[-f] left.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sugar enough</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>enough of sugar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>few sugar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>a few sugar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This car is [f]too expensive[-f] for us to buy. We are not that rich. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>expensive enough</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>very expensive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>more expensive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>not expensive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dick and Joan greeted [f]each other[-f].</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>himself</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>herself</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>themselves</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>one another</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Why don't you go to John? He [f]may know[-f] the answer. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>may knew</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>may have known</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ougth know</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>should to know</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I suggest that you should [f]speak to[-f] them about their plans.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>say with</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>said</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tell to</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>spoke</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the beginning of the storm several trees [f]have fallen[-f] down. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fell</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>felt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>have felt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>has felt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think she [f]may be invited[-f] to say a few words about her experiments during the congress.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>must invite</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>will invite</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>will be inviting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>may be inviting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sad story made him [f]think[-f] about his own tragedy.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>to think</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>thought</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>thinks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>has thought</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This town [f]was founded[-f] by Queen Elizabeth. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>was found</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>found</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>founded</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>has been found</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choose the right preposition.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I believe [f]in[-f] taking my time.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3797,67 +4001,155 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>with</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>of</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>at</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>about</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>by</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>for</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>along</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jones was dismissed [f]from[-f] the firm.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>over</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>between</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>They began by experimenting [f]on[-f] rats.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>under</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>without</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>train</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>helicopter</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>boat</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blank2H1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blank2H2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blank2H3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blank2H4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blank2H5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blank2H6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sound</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
+    <t>toward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please concentrate [f]on[-f] what you are doing.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>away from</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>She prides herself [f]on[-f] her clean house.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The climber failed [f]in[-f] his attempts to reach the summit.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many people escaped [f]from[-f] prison camps during the last war.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>We must economize [f]on[-f] fuel.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>He's never done any work. He lives [f]on[-f] his mother.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>He was employed [f]in[-f] a factory before he joined the army.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>inside</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>And what does this delightful drink consist [f]of[-f]?</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't write [f]on[-f] the desk!</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>You should not boast [f]of[-f] your success.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>You must encourage him [f]in[-f]his efforts.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I shall certainly act [f]on[-f] your advice.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I must apologize [f]for[-f] keeping you waiting so long.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The class failed to respond [f]to[-f] the teacher's new methods.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>He turned [f]to[-f] me for help.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like Micawber, I hope [f]for[-f] something better.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please apply [f]to[-f] the secretary for information.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>beside</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just guess [f]at[-f] the price of this carpet.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3865,7 +4157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -3978,6 +4270,23 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -4175,7 +4484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4316,6 +4625,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4655,11 +4970,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T429"/>
+  <dimension ref="A1:M429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4667,18 +4982,16 @@
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="30" style="19" customWidth="1"/>
-    <col min="7" max="7" width="5.875" customWidth="1"/>
-    <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="9.25" customWidth="1"/>
-    <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="6.5" customWidth="1"/>
-    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="33" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27">
+    <row r="1" spans="1:13">
       <c r="A1" s="44" t="s">
         <v>908</v>
       </c>
@@ -4688,56 +5001,38 @@
       <c r="C1" s="44" t="s">
         <v>910</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>954</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>932</v>
-      </c>
-      <c r="F1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>912</v>
       </c>
+      <c r="E1" s="46" t="s">
+        <v>913</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>914</v>
+      </c>
       <c r="G1" s="46" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>937</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>938</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>939</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>948</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>949</v>
-      </c>
-      <c r="O1" s="46" t="s">
-        <v>950</v>
-      </c>
-      <c r="P1" s="46" t="s">
-        <v>951</v>
-      </c>
-      <c r="Q1" s="46" t="s">
-        <v>952</v>
-      </c>
-      <c r="R1" s="46" t="s">
-        <v>953</v>
-      </c>
-      <c r="T1" s="44" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>918</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>919</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>921</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4747,2716 +5042,2743 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>955</v>
-      </c>
-      <c r="E2" t="s">
-        <v>933</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>929</v>
+      <c r="D2" s="19" t="s">
+        <v>935</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>938</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>913</v>
+        <v>939</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>914</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>915</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>916</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>917</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="T2" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>940</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" t="s">
+        <v>920</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="27">
       <c r="B3" s="43"/>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>955</v>
-      </c>
-      <c r="E3" t="s">
-        <v>933</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="19" t="s">
+        <v>936</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>930</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>918</v>
-      </c>
       <c r="H3" s="11" t="s">
-        <v>919</v>
-      </c>
-      <c r="I3" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" t="s">
         <v>920</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="T3" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="27">
+      <c r="L3" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="B4" s="43"/>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>956</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="19" t="s">
+        <v>942</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>931</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>921</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>922</v>
-      </c>
-      <c r="I4" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" t="s">
+        <v>920</v>
+      </c>
+      <c r="L4" s="48" t="s">
         <v>923</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>924</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>925</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="48" t="s">
         <v>926</v>
       </c>
-      <c r="T4" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="27">
+    </row>
+    <row r="5" spans="1:13" ht="27">
       <c r="B5" s="43"/>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>957</v>
-      </c>
-      <c r="E5" t="s">
-        <v>933</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>940</v>
+      <c r="D5" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>944</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>942</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>944</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11" t="s">
-        <v>945</v>
-      </c>
-      <c r="N5" s="11" t="s">
         <v>946</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" t="s">
+        <v>920</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27">
+      <c r="B6" s="43"/>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="B6" s="43"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>951</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="K6" t="s">
+        <v>920</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="40.5">
       <c r="B7" s="43"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>952</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>956</v>
+      </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="K7" t="s">
+        <v>920</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27">
       <c r="B8" s="43"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>961</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="K8" t="s">
+        <v>920</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27">
       <c r="B9" s="43"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>962</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>966</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="K9" t="s">
+        <v>920</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="40.5">
       <c r="B10" s="43"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>967</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>970</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>971</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="K10" t="s">
+        <v>920</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M10" s="48" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="40.5">
       <c r="B11" s="43"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>972</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="K11" t="s">
+        <v>920</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="40.5">
       <c r="B12" s="43"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>979</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>981</v>
+      </c>
+      <c r="K12" t="s">
+        <v>920</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="40.5">
       <c r="B13" s="43"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>982</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>985</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="K13" t="s">
+        <v>920</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="27">
       <c r="B14" s="43"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="B15" s="43"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>987</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>990</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="K14" t="s">
+        <v>920</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="40.5">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>992</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>993</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="K15" t="s">
+        <v>920</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27">
       <c r="B16" s="43"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K16" t="s">
+        <v>920</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="27">
       <c r="B17" s="43"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K17" t="s">
+        <v>920</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="27">
       <c r="B18" s="43"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K18" t="s">
+        <v>920</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M18" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="27">
       <c r="B19" s="43"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K19" t="s">
+        <v>920</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M19" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="27">
       <c r="B20" s="43"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K20" t="s">
+        <v>920</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M20" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="40.5">
       <c r="B21" s="43"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K21" t="s">
+        <v>920</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M21" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="27">
       <c r="B22" s="43"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K22" t="s">
+        <v>920</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M22" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="27">
       <c r="B23" s="43"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="K23" t="s">
+        <v>920</v>
+      </c>
+      <c r="L23" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M23" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="40.5">
       <c r="B24" s="43"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K24" t="s">
+        <v>920</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M24" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="27">
       <c r="B25" s="43"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K25" t="s">
+        <v>920</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M25" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="43"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K26" t="s">
+        <v>920</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M26" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="27">
       <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K27" t="s">
+        <v>920</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M27" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="27">
       <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="K28" t="s">
+        <v>920</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M28" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="27">
       <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="K29" t="s">
+        <v>920</v>
+      </c>
+      <c r="L29" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M29" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="27">
       <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K30" t="s">
+        <v>920</v>
+      </c>
+      <c r="L30" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M30" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="40.5">
       <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K31" t="s">
+        <v>920</v>
+      </c>
+      <c r="L31" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M31" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K32" t="s">
+        <v>920</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M32" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="27">
       <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K33" t="s">
+        <v>920</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M33" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="27">
       <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="C34">
+        <v>19</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K34" t="s">
+        <v>920</v>
+      </c>
+      <c r="L34" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M34" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="27">
       <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K35" t="s">
+        <v>920</v>
+      </c>
+      <c r="L35" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="M35" s="48" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="2:5">
+    </row>
+    <row r="37" spans="2:13">
       <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="2:5">
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="2:5">
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="2:5">
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="2:5">
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="2:5">
+    </row>
+    <row r="42" spans="2:13">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="2:5">
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="2:5">
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="2:5">
+    </row>
+    <row r="45" spans="2:13">
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="2:5">
+    </row>
+    <row r="46" spans="2:13">
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="2:5">
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="2:5">
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="2:5">
+    </row>
+    <row r="49" spans="2:3">
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="2:5">
+    </row>
+    <row r="50" spans="2:3">
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="2:5">
+    </row>
+    <row r="51" spans="2:3">
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="2:5">
+    </row>
+    <row r="52" spans="2:3">
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="2:5">
+    </row>
+    <row r="53" spans="2:3">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="2:5">
+    </row>
+    <row r="54" spans="2:3">
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-    </row>
-    <row r="55" spans="2:5">
+    </row>
+    <row r="55" spans="2:3">
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="2:5">
+    </row>
+    <row r="56" spans="2:3">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="2:5">
+    </row>
+    <row r="57" spans="2:3">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="2:5">
+    </row>
+    <row r="58" spans="2:3">
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="2:5">
+    </row>
+    <row r="59" spans="2:3">
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="2:5">
+    </row>
+    <row r="60" spans="2:3">
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="2:5">
+    </row>
+    <row r="61" spans="2:3">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="2:5">
+    </row>
+    <row r="62" spans="2:3">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="2:5">
+    </row>
+    <row r="63" spans="2:3">
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="2:5">
+    </row>
+    <row r="64" spans="2:3">
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-    </row>
-    <row r="65" spans="2:5">
+    </row>
+    <row r="65" spans="2:3">
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="2:5">
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-    </row>
-    <row r="67" spans="2:5">
+    </row>
+    <row r="67" spans="2:3">
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" spans="2:5">
+    </row>
+    <row r="68" spans="2:3">
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="2:5">
+    </row>
+    <row r="69" spans="2:3">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="2:5">
+    </row>
+    <row r="70" spans="2:3">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="2:5">
+    </row>
+    <row r="71" spans="2:3">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-    </row>
-    <row r="72" spans="2:5">
+    </row>
+    <row r="72" spans="2:3">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" spans="2:5">
+    </row>
+    <row r="73" spans="2:3">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-    </row>
-    <row r="74" spans="2:5">
+    </row>
+    <row r="74" spans="2:3">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-    </row>
-    <row r="75" spans="2:5">
+    </row>
+    <row r="75" spans="2:3">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-    </row>
-    <row r="76" spans="2:5">
+    </row>
+    <row r="76" spans="2:3">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" spans="2:5">
+    </row>
+    <row r="77" spans="2:3">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-    </row>
-    <row r="78" spans="2:5">
+    </row>
+    <row r="78" spans="2:3">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-    </row>
-    <row r="79" spans="2:5">
+    </row>
+    <row r="79" spans="2:3">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-    </row>
-    <row r="80" spans="2:5">
+    </row>
+    <row r="80" spans="2:3">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-    </row>
-    <row r="81" spans="2:5">
+    </row>
+    <row r="81" spans="2:3">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-    </row>
-    <row r="82" spans="2:5">
+    </row>
+    <row r="82" spans="2:3">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-    </row>
-    <row r="83" spans="2:5">
+    </row>
+    <row r="83" spans="2:3">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-    </row>
-    <row r="84" spans="2:5">
+    </row>
+    <row r="84" spans="2:3">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-    </row>
-    <row r="85" spans="2:5">
+    </row>
+    <row r="85" spans="2:3">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-    </row>
-    <row r="86" spans="2:5">
+    </row>
+    <row r="86" spans="2:3">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-    </row>
-    <row r="87" spans="2:5">
+    </row>
+    <row r="87" spans="2:3">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-    </row>
-    <row r="88" spans="2:5">
+    </row>
+    <row r="88" spans="2:3">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-    </row>
-    <row r="89" spans="2:5">
+    </row>
+    <row r="89" spans="2:3">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-    </row>
-    <row r="90" spans="2:5">
+    </row>
+    <row r="90" spans="2:3">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-    </row>
-    <row r="91" spans="2:5">
+    </row>
+    <row r="91" spans="2:3">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-    </row>
-    <row r="92" spans="2:5">
+    </row>
+    <row r="92" spans="2:3">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-    </row>
-    <row r="93" spans="2:5">
+    </row>
+    <row r="93" spans="2:3">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-    </row>
-    <row r="94" spans="2:5">
+    </row>
+    <row r="94" spans="2:3">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-    </row>
-    <row r="95" spans="2:5">
+    </row>
+    <row r="95" spans="2:3">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-    </row>
-    <row r="96" spans="2:5">
+    </row>
+    <row r="96" spans="2:3">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-    </row>
-    <row r="97" spans="2:5">
+    </row>
+    <row r="97" spans="2:3">
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-    </row>
-    <row r="98" spans="2:5">
+    </row>
+    <row r="98" spans="2:3">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-    </row>
-    <row r="99" spans="2:5">
+    </row>
+    <row r="99" spans="2:3">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-    </row>
-    <row r="100" spans="2:5" ht="27.75" customHeight="1">
+    </row>
+    <row r="100" spans="2:3" ht="27.75" customHeight="1">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-    </row>
-    <row r="101" spans="2:5">
+    </row>
+    <row r="101" spans="2:3">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" spans="2:5">
+    </row>
+    <row r="102" spans="2:3">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-    </row>
-    <row r="103" spans="2:5">
+    </row>
+    <row r="103" spans="2:3">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-    </row>
-    <row r="104" spans="2:5">
+    </row>
+    <row r="104" spans="2:3">
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-    </row>
-    <row r="105" spans="2:5">
+    </row>
+    <row r="105" spans="2:3">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-    </row>
-    <row r="106" spans="2:5">
+    </row>
+    <row r="106" spans="2:3">
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-    </row>
-    <row r="107" spans="2:5">
+    </row>
+    <row r="107" spans="2:3">
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-    </row>
-    <row r="108" spans="2:5">
+    </row>
+    <row r="108" spans="2:3">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-    </row>
-    <row r="109" spans="2:5">
+    </row>
+    <row r="109" spans="2:3">
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-    </row>
-    <row r="110" spans="2:5">
+    </row>
+    <row r="110" spans="2:3">
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-    </row>
-    <row r="111" spans="2:5">
+    </row>
+    <row r="111" spans="2:3">
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-    </row>
-    <row r="112" spans="2:5">
+    </row>
+    <row r="112" spans="2:3">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-    </row>
-    <row r="113" spans="2:5">
+    </row>
+    <row r="113" spans="2:3">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-    </row>
-    <row r="114" spans="2:5">
+    </row>
+    <row r="114" spans="2:3">
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-    </row>
-    <row r="115" spans="2:5">
+    </row>
+    <row r="115" spans="2:3">
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-    </row>
-    <row r="116" spans="2:5">
+    </row>
+    <row r="116" spans="2:3">
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-    </row>
-    <row r="117" spans="2:5">
+    </row>
+    <row r="117" spans="2:3">
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-    </row>
-    <row r="118" spans="2:5">
+    </row>
+    <row r="118" spans="2:3">
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-    </row>
-    <row r="119" spans="2:5">
+    </row>
+    <row r="119" spans="2:3">
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-    </row>
-    <row r="120" spans="2:5">
+    </row>
+    <row r="120" spans="2:3">
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-    </row>
-    <row r="121" spans="2:5">
+    </row>
+    <row r="121" spans="2:3">
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-    </row>
-    <row r="122" spans="2:5">
+    </row>
+    <row r="122" spans="2:3">
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-    </row>
-    <row r="123" spans="2:5">
+    </row>
+    <row r="123" spans="2:3">
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-    </row>
-    <row r="124" spans="2:5">
+    </row>
+    <row r="124" spans="2:3">
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-    </row>
-    <row r="125" spans="2:5">
+    </row>
+    <row r="125" spans="2:3">
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-    </row>
-    <row r="126" spans="2:5">
+    </row>
+    <row r="126" spans="2:3">
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
-    </row>
-    <row r="127" spans="2:5">
+    </row>
+    <row r="127" spans="2:3">
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-    </row>
-    <row r="128" spans="2:5">
+    </row>
+    <row r="128" spans="2:3">
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-    </row>
-    <row r="129" spans="2:5">
+    </row>
+    <row r="129" spans="2:3">
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-    </row>
-    <row r="130" spans="2:5">
+    </row>
+    <row r="130" spans="2:3">
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-    </row>
-    <row r="131" spans="2:5">
+    </row>
+    <row r="131" spans="2:3">
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-    </row>
-    <row r="132" spans="2:5">
+    </row>
+    <row r="132" spans="2:3">
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-    </row>
-    <row r="133" spans="2:5">
+    </row>
+    <row r="133" spans="2:3">
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-    </row>
-    <row r="134" spans="2:5">
+    </row>
+    <row r="134" spans="2:3">
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-    </row>
-    <row r="135" spans="2:5">
+    </row>
+    <row r="135" spans="2:3">
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-    </row>
-    <row r="136" spans="2:5">
+    </row>
+    <row r="136" spans="2:3">
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-    </row>
-    <row r="137" spans="2:5">
+    </row>
+    <row r="137" spans="2:3">
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
-    </row>
-    <row r="138" spans="2:5">
+    </row>
+    <row r="138" spans="2:3">
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-    </row>
-    <row r="139" spans="2:5">
+    </row>
+    <row r="139" spans="2:3">
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-    </row>
-    <row r="140" spans="2:5">
+    </row>
+    <row r="140" spans="2:3">
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-    </row>
-    <row r="141" spans="2:5">
+    </row>
+    <row r="141" spans="2:3">
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-    </row>
-    <row r="142" spans="2:5">
+    </row>
+    <row r="142" spans="2:3">
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-    </row>
-    <row r="143" spans="2:5">
+    </row>
+    <row r="143" spans="2:3">
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-    </row>
-    <row r="144" spans="2:5">
+    </row>
+    <row r="144" spans="2:3">
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-    </row>
-    <row r="145" spans="2:5">
+    </row>
+    <row r="145" spans="2:3">
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-    </row>
-    <row r="146" spans="2:5">
+    </row>
+    <row r="146" spans="2:3">
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-    </row>
-    <row r="147" spans="2:5">
+    </row>
+    <row r="147" spans="2:3">
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-    </row>
-    <row r="148" spans="2:5">
+    </row>
+    <row r="148" spans="2:3">
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
-    </row>
-    <row r="149" spans="2:5">
+    </row>
+    <row r="149" spans="2:3">
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
-    </row>
-    <row r="150" spans="2:5">
+    </row>
+    <row r="150" spans="2:3">
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-    </row>
-    <row r="151" spans="2:5">
+    </row>
+    <row r="151" spans="2:3">
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
-    </row>
-    <row r="152" spans="2:5">
+    </row>
+    <row r="152" spans="2:3">
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-    </row>
-    <row r="153" spans="2:5">
+    </row>
+    <row r="153" spans="2:3">
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
-    </row>
-    <row r="154" spans="2:5">
+    </row>
+    <row r="154" spans="2:3">
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
-    </row>
-    <row r="155" spans="2:5">
+    </row>
+    <row r="155" spans="2:3">
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
-    </row>
-    <row r="156" spans="2:5">
+    </row>
+    <row r="156" spans="2:3">
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-    </row>
-    <row r="157" spans="2:5">
+    </row>
+    <row r="157" spans="2:3">
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
-    </row>
-    <row r="158" spans="2:5">
+    </row>
+    <row r="158" spans="2:3">
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-    </row>
-    <row r="159" spans="2:5">
+    </row>
+    <row r="159" spans="2:3">
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-    </row>
-    <row r="160" spans="2:5">
+    </row>
+    <row r="160" spans="2:3">
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-    </row>
-    <row r="161" spans="2:5">
+    </row>
+    <row r="161" spans="2:3">
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
-      <c r="E161" s="11"/>
-    </row>
-    <row r="162" spans="2:5">
+    </row>
+    <row r="162" spans="2:3">
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="11"/>
-    </row>
-    <row r="163" spans="2:5">
+    </row>
+    <row r="163" spans="2:3">
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
-    </row>
-    <row r="164" spans="2:5">
+    </row>
+    <row r="164" spans="2:3">
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
-      <c r="E164" s="11"/>
-    </row>
-    <row r="165" spans="2:5">
+    </row>
+    <row r="165" spans="2:3">
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-    </row>
-    <row r="166" spans="2:5">
+    </row>
+    <row r="166" spans="2:3">
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="11"/>
-    </row>
-    <row r="167" spans="2:5">
+    </row>
+    <row r="167" spans="2:3">
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
-    </row>
-    <row r="168" spans="2:5">
+    </row>
+    <row r="168" spans="2:3">
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="E168" s="11"/>
-    </row>
-    <row r="169" spans="2:5">
+    </row>
+    <row r="169" spans="2:3">
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="11"/>
-    </row>
-    <row r="170" spans="2:5">
+    </row>
+    <row r="170" spans="2:3">
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-    </row>
-    <row r="171" spans="2:5">
+    </row>
+    <row r="171" spans="2:3">
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="11"/>
-    </row>
-    <row r="172" spans="2:5">
+    </row>
+    <row r="172" spans="2:3">
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
-    </row>
-    <row r="173" spans="2:5">
+    </row>
+    <row r="173" spans="2:3">
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-    </row>
-    <row r="174" spans="2:5">
+    </row>
+    <row r="174" spans="2:3">
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11"/>
-    </row>
-    <row r="175" spans="2:5">
+    </row>
+    <row r="175" spans="2:3">
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
-    </row>
-    <row r="176" spans="2:5">
+    </row>
+    <row r="176" spans="2:3">
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-    </row>
-    <row r="177" spans="2:5">
+    </row>
+    <row r="177" spans="2:3">
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
-    </row>
-    <row r="178" spans="2:5">
+    </row>
+    <row r="178" spans="2:3">
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="11"/>
-    </row>
-    <row r="179" spans="2:5">
+    </row>
+    <row r="179" spans="2:3">
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
-    </row>
-    <row r="180" spans="2:5">
+    </row>
+    <row r="180" spans="2:3">
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
-    </row>
-    <row r="181" spans="2:5">
+    </row>
+    <row r="181" spans="2:3">
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="11"/>
-    </row>
-    <row r="182" spans="2:5">
+    </row>
+    <row r="182" spans="2:3">
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="11"/>
-    </row>
-    <row r="183" spans="2:5">
+    </row>
+    <row r="183" spans="2:3">
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11"/>
-    </row>
-    <row r="184" spans="2:5">
+    </row>
+    <row r="184" spans="2:3">
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11"/>
-    </row>
-    <row r="185" spans="2:5">
+    </row>
+    <row r="185" spans="2:3">
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
-      <c r="D185" s="11"/>
-      <c r="E185" s="11"/>
-    </row>
-    <row r="186" spans="2:5">
+    </row>
+    <row r="186" spans="2:3">
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
-      <c r="E186" s="11"/>
-    </row>
-    <row r="187" spans="2:5">
+    </row>
+    <row r="187" spans="2:3">
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11"/>
-    </row>
-    <row r="188" spans="2:5">
+    </row>
+    <row r="188" spans="2:3">
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11"/>
-    </row>
-    <row r="189" spans="2:5">
+    </row>
+    <row r="189" spans="2:3">
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="11"/>
-    </row>
-    <row r="190" spans="2:5">
+    </row>
+    <row r="190" spans="2:3">
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="11"/>
-    </row>
-    <row r="191" spans="2:5">
+    </row>
+    <row r="191" spans="2:3">
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="11"/>
-    </row>
-    <row r="192" spans="2:5">
+    </row>
+    <row r="192" spans="2:3">
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="11"/>
-    </row>
-    <row r="193" spans="2:5">
+    </row>
+    <row r="193" spans="2:3">
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
-      <c r="E193" s="11"/>
-    </row>
-    <row r="194" spans="2:5">
+    </row>
+    <row r="194" spans="2:3">
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11"/>
-    </row>
-    <row r="195" spans="2:5">
+    </row>
+    <row r="195" spans="2:3">
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
-      <c r="D195" s="11"/>
-      <c r="E195" s="11"/>
-    </row>
-    <row r="196" spans="2:5">
+    </row>
+    <row r="196" spans="2:3">
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
-      <c r="E196" s="11"/>
-    </row>
-    <row r="197" spans="2:5">
+    </row>
+    <row r="197" spans="2:3">
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="11"/>
-    </row>
-    <row r="198" spans="2:5">
+    </row>
+    <row r="198" spans="2:3">
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="11"/>
-    </row>
-    <row r="199" spans="2:5">
+    </row>
+    <row r="199" spans="2:3">
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="11"/>
-    </row>
-    <row r="200" spans="2:5">
+    </row>
+    <row r="200" spans="2:3">
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-      <c r="E200" s="11"/>
-    </row>
-    <row r="201" spans="2:5">
+    </row>
+    <row r="201" spans="2:3">
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
-      <c r="E201" s="11"/>
-    </row>
-    <row r="202" spans="2:5">
+    </row>
+    <row r="202" spans="2:3">
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
-      <c r="E202" s="11"/>
-    </row>
-    <row r="203" spans="2:5">
+    </row>
+    <row r="203" spans="2:3">
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
-      <c r="E203" s="11"/>
-    </row>
-    <row r="204" spans="2:5">
+    </row>
+    <row r="204" spans="2:3">
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="11"/>
-    </row>
-    <row r="205" spans="2:5">
+    </row>
+    <row r="205" spans="2:3">
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
-      <c r="D205" s="11"/>
-      <c r="E205" s="11"/>
-    </row>
-    <row r="206" spans="2:5">
+    </row>
+    <row r="206" spans="2:3">
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
-      <c r="E206" s="11"/>
-    </row>
-    <row r="207" spans="2:5">
+    </row>
+    <row r="207" spans="2:3">
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
-      <c r="E207" s="11"/>
-    </row>
-    <row r="208" spans="2:5">
+    </row>
+    <row r="208" spans="2:3">
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
-      <c r="D208" s="11"/>
-      <c r="E208" s="11"/>
-    </row>
-    <row r="209" spans="2:5">
+    </row>
+    <row r="209" spans="2:3">
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
-      <c r="D209" s="11"/>
-      <c r="E209" s="11"/>
-    </row>
-    <row r="210" spans="2:5">
+    </row>
+    <row r="210" spans="2:3">
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
-      <c r="E210" s="11"/>
-    </row>
-    <row r="211" spans="2:5">
+    </row>
+    <row r="211" spans="2:3">
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
-      <c r="D211" s="11"/>
-      <c r="E211" s="11"/>
-    </row>
-    <row r="212" spans="2:5">
+    </row>
+    <row r="212" spans="2:3">
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
-      <c r="E212" s="11"/>
-    </row>
-    <row r="213" spans="2:5">
+    </row>
+    <row r="213" spans="2:3">
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
-      <c r="D213" s="11"/>
-      <c r="E213" s="11"/>
-    </row>
-    <row r="214" spans="2:5">
+    </row>
+    <row r="214" spans="2:3">
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
-      <c r="D214" s="11"/>
-      <c r="E214" s="11"/>
-    </row>
-    <row r="215" spans="2:5">
+    </row>
+    <row r="215" spans="2:3">
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
-      <c r="D215" s="11"/>
-      <c r="E215" s="11"/>
-    </row>
-    <row r="216" spans="2:5">
+    </row>
+    <row r="216" spans="2:3">
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
-      <c r="D216" s="11"/>
-      <c r="E216" s="11"/>
-    </row>
-    <row r="217" spans="2:5">
+    </row>
+    <row r="217" spans="2:3">
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
-      <c r="D217" s="11"/>
-      <c r="E217" s="11"/>
-    </row>
-    <row r="218" spans="2:5">
+    </row>
+    <row r="218" spans="2:3">
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
-      <c r="D218" s="11"/>
-      <c r="E218" s="11"/>
-    </row>
-    <row r="219" spans="2:5">
+    </row>
+    <row r="219" spans="2:3">
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
-      <c r="E219" s="11"/>
-    </row>
-    <row r="220" spans="2:5">
+    </row>
+    <row r="220" spans="2:3">
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
-      <c r="D220" s="11"/>
-      <c r="E220" s="11"/>
-    </row>
-    <row r="221" spans="2:5">
+    </row>
+    <row r="221" spans="2:3">
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
-      <c r="D221" s="11"/>
-      <c r="E221" s="11"/>
-    </row>
-    <row r="222" spans="2:5">
+    </row>
+    <row r="222" spans="2:3">
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
-      <c r="D222" s="11"/>
-      <c r="E222" s="11"/>
-    </row>
-    <row r="223" spans="2:5">
+    </row>
+    <row r="223" spans="2:3">
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
-      <c r="D223" s="11"/>
-      <c r="E223" s="11"/>
-    </row>
-    <row r="224" spans="2:5">
+    </row>
+    <row r="224" spans="2:3">
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
-      <c r="D224" s="11"/>
-      <c r="E224" s="11"/>
-    </row>
-    <row r="225" spans="2:5">
+    </row>
+    <row r="225" spans="2:3">
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
-      <c r="D225" s="11"/>
-      <c r="E225" s="11"/>
-    </row>
-    <row r="226" spans="2:5">
+    </row>
+    <row r="226" spans="2:3">
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
-      <c r="D226" s="11"/>
-      <c r="E226" s="11"/>
-    </row>
-    <row r="227" spans="2:5">
+    </row>
+    <row r="227" spans="2:3">
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
-      <c r="D227" s="11"/>
-      <c r="E227" s="11"/>
-    </row>
-    <row r="228" spans="2:5">
+    </row>
+    <row r="228" spans="2:3">
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
-      <c r="D228" s="11"/>
-      <c r="E228" s="11"/>
-    </row>
-    <row r="229" spans="2:5">
+    </row>
+    <row r="229" spans="2:3">
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
-      <c r="E229" s="11"/>
-    </row>
-    <row r="230" spans="2:5">
+    </row>
+    <row r="230" spans="2:3">
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
-      <c r="D230" s="11"/>
-      <c r="E230" s="11"/>
-    </row>
-    <row r="231" spans="2:5">
+    </row>
+    <row r="231" spans="2:3">
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
-      <c r="D231" s="11"/>
-      <c r="E231" s="11"/>
-    </row>
-    <row r="232" spans="2:5">
+    </row>
+    <row r="232" spans="2:3">
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
-      <c r="E232" s="11"/>
-    </row>
-    <row r="233" spans="2:5">
+    </row>
+    <row r="233" spans="2:3">
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
-      <c r="D233" s="11"/>
-      <c r="E233" s="11"/>
-    </row>
-    <row r="234" spans="2:5">
+    </row>
+    <row r="234" spans="2:3">
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
-      <c r="D234" s="11"/>
-      <c r="E234" s="11"/>
-    </row>
-    <row r="235" spans="2:5">
+    </row>
+    <row r="235" spans="2:3">
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
-      <c r="D235" s="11"/>
-      <c r="E235" s="11"/>
-    </row>
-    <row r="236" spans="2:5">
+    </row>
+    <row r="236" spans="2:3">
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
-      <c r="D236" s="11"/>
-      <c r="E236" s="11"/>
-    </row>
-    <row r="237" spans="2:5">
+    </row>
+    <row r="237" spans="2:3">
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
-      <c r="D237" s="11"/>
-      <c r="E237" s="11"/>
-    </row>
-    <row r="238" spans="2:5">
+    </row>
+    <row r="238" spans="2:3">
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
-      <c r="D238" s="11"/>
-      <c r="E238" s="11"/>
-    </row>
-    <row r="239" spans="2:5">
+    </row>
+    <row r="239" spans="2:3">
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
-      <c r="E239" s="11"/>
-    </row>
-    <row r="240" spans="2:5">
+    </row>
+    <row r="240" spans="2:3">
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
-      <c r="E240" s="11"/>
-    </row>
-    <row r="241" spans="2:5">
+    </row>
+    <row r="241" spans="2:3">
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
-      <c r="D241" s="11"/>
-      <c r="E241" s="11"/>
-    </row>
-    <row r="242" spans="2:5">
+    </row>
+    <row r="242" spans="2:3">
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
-      <c r="D242" s="11"/>
-      <c r="E242" s="11"/>
-    </row>
-    <row r="243" spans="2:5">
+    </row>
+    <row r="243" spans="2:3">
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
-      <c r="D243" s="11"/>
-      <c r="E243" s="11"/>
-    </row>
-    <row r="244" spans="2:5">
+    </row>
+    <row r="244" spans="2:3">
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
-      <c r="D244" s="11"/>
-      <c r="E244" s="11"/>
-    </row>
-    <row r="245" spans="2:5">
+    </row>
+    <row r="245" spans="2:3">
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
-      <c r="D245" s="11"/>
-      <c r="E245" s="11"/>
-    </row>
-    <row r="246" spans="2:5">
+    </row>
+    <row r="246" spans="2:3">
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
-      <c r="D246" s="11"/>
-      <c r="E246" s="11"/>
-    </row>
-    <row r="247" spans="2:5">
+    </row>
+    <row r="247" spans="2:3">
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
-      <c r="D247" s="11"/>
-      <c r="E247" s="11"/>
-    </row>
-    <row r="248" spans="2:5">
+    </row>
+    <row r="248" spans="2:3">
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
-      <c r="D248" s="11"/>
-      <c r="E248" s="11"/>
-    </row>
-    <row r="249" spans="2:5">
+    </row>
+    <row r="249" spans="2:3">
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
-      <c r="D249" s="11"/>
-      <c r="E249" s="11"/>
-    </row>
-    <row r="250" spans="2:5">
+    </row>
+    <row r="250" spans="2:3">
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
-      <c r="D250" s="11"/>
-      <c r="E250" s="11"/>
-    </row>
-    <row r="251" spans="2:5">
+    </row>
+    <row r="251" spans="2:3">
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
-      <c r="D251" s="11"/>
-      <c r="E251" s="11"/>
-    </row>
-    <row r="252" spans="2:5">
+    </row>
+    <row r="252" spans="2:3">
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
-      <c r="D252" s="11"/>
-      <c r="E252" s="11"/>
-    </row>
-    <row r="253" spans="2:5">
+    </row>
+    <row r="253" spans="2:3">
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
-      <c r="D253" s="11"/>
-      <c r="E253" s="11"/>
-    </row>
-    <row r="254" spans="2:5">
+    </row>
+    <row r="254" spans="2:3">
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
-      <c r="D254" s="11"/>
-      <c r="E254" s="11"/>
-    </row>
-    <row r="255" spans="2:5">
+    </row>
+    <row r="255" spans="2:3">
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
-      <c r="D255" s="11"/>
-      <c r="E255" s="11"/>
-    </row>
-    <row r="256" spans="2:5">
+    </row>
+    <row r="256" spans="2:3">
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
-      <c r="D256" s="11"/>
-      <c r="E256" s="11"/>
-    </row>
-    <row r="257" spans="2:5">
+    </row>
+    <row r="257" spans="2:3">
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
-      <c r="D257" s="11"/>
-      <c r="E257" s="11"/>
-    </row>
-    <row r="258" spans="2:5">
+    </row>
+    <row r="258" spans="2:3">
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
-      <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
-    </row>
-    <row r="259" spans="2:5">
+    </row>
+    <row r="259" spans="2:3">
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
-      <c r="D259" s="11"/>
-      <c r="E259" s="11"/>
-    </row>
-    <row r="260" spans="2:5">
+    </row>
+    <row r="260" spans="2:3">
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
-      <c r="D260" s="11"/>
-      <c r="E260" s="11"/>
-    </row>
-    <row r="261" spans="2:5">
+    </row>
+    <row r="261" spans="2:3">
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
-    </row>
-    <row r="262" spans="2:5">
+    </row>
+    <row r="262" spans="2:3">
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
-      <c r="D262" s="11"/>
-      <c r="E262" s="11"/>
-    </row>
-    <row r="263" spans="2:5">
+    </row>
+    <row r="263" spans="2:3">
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
-      <c r="D263" s="11"/>
-      <c r="E263" s="11"/>
-    </row>
-    <row r="264" spans="2:5">
+    </row>
+    <row r="264" spans="2:3">
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
-      <c r="D264" s="11"/>
-      <c r="E264" s="11"/>
-    </row>
-    <row r="265" spans="2:5">
+    </row>
+    <row r="265" spans="2:3">
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
-      <c r="D265" s="11"/>
-      <c r="E265" s="11"/>
-    </row>
-    <row r="266" spans="2:5">
+    </row>
+    <row r="266" spans="2:3">
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
-      <c r="D266" s="11"/>
-      <c r="E266" s="11"/>
-    </row>
-    <row r="267" spans="2:5">
+    </row>
+    <row r="267" spans="2:3">
       <c r="B267" s="11"/>
       <c r="C267" s="11"/>
-      <c r="D267" s="11"/>
-      <c r="E267" s="11"/>
-    </row>
-    <row r="268" spans="2:5">
+    </row>
+    <row r="268" spans="2:3">
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
-      <c r="D268" s="11"/>
-      <c r="E268" s="11"/>
-    </row>
-    <row r="269" spans="2:5">
+    </row>
+    <row r="269" spans="2:3">
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
-      <c r="D269" s="11"/>
-      <c r="E269" s="11"/>
-    </row>
-    <row r="270" spans="2:5">
+    </row>
+    <row r="270" spans="2:3">
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
-      <c r="D270" s="11"/>
-      <c r="E270" s="11"/>
-    </row>
-    <row r="271" spans="2:5">
+    </row>
+    <row r="271" spans="2:3">
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
-      <c r="D271" s="11"/>
-      <c r="E271" s="11"/>
-    </row>
-    <row r="272" spans="2:5">
+    </row>
+    <row r="272" spans="2:3">
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
-      <c r="D272" s="11"/>
-      <c r="E272" s="11"/>
-    </row>
-    <row r="273" spans="2:5">
+    </row>
+    <row r="273" spans="2:3">
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
-      <c r="D273" s="11"/>
-      <c r="E273" s="11"/>
-    </row>
-    <row r="274" spans="2:5">
+    </row>
+    <row r="274" spans="2:3">
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
-      <c r="D274" s="11"/>
-      <c r="E274" s="11"/>
-    </row>
-    <row r="275" spans="2:5">
+    </row>
+    <row r="275" spans="2:3">
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
-      <c r="D275" s="11"/>
-      <c r="E275" s="11"/>
-    </row>
-    <row r="276" spans="2:5">
+    </row>
+    <row r="276" spans="2:3">
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
-      <c r="D276" s="11"/>
-      <c r="E276" s="11"/>
-    </row>
-    <row r="277" spans="2:5">
+    </row>
+    <row r="277" spans="2:3">
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
-      <c r="D277" s="11"/>
-      <c r="E277" s="11"/>
-    </row>
-    <row r="278" spans="2:5">
+    </row>
+    <row r="278" spans="2:3">
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
-      <c r="D278" s="11"/>
-      <c r="E278" s="11"/>
-    </row>
-    <row r="279" spans="2:5">
+    </row>
+    <row r="279" spans="2:3">
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
-      <c r="D279" s="11"/>
-      <c r="E279" s="11"/>
-    </row>
-    <row r="280" spans="2:5">
+    </row>
+    <row r="280" spans="2:3">
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
-      <c r="D280" s="11"/>
-      <c r="E280" s="11"/>
-    </row>
-    <row r="281" spans="2:5">
+    </row>
+    <row r="281" spans="2:3">
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
-      <c r="D281" s="11"/>
-      <c r="E281" s="11"/>
-    </row>
-    <row r="282" spans="2:5">
+    </row>
+    <row r="282" spans="2:3">
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
-      <c r="D282" s="11"/>
-      <c r="E282" s="11"/>
-    </row>
-    <row r="283" spans="2:5">
+    </row>
+    <row r="283" spans="2:3">
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
-      <c r="D283" s="11"/>
-      <c r="E283" s="11"/>
-    </row>
-    <row r="284" spans="2:5">
+    </row>
+    <row r="284" spans="2:3">
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
-      <c r="D284" s="11"/>
-      <c r="E284" s="11"/>
-    </row>
-    <row r="285" spans="2:5">
+    </row>
+    <row r="285" spans="2:3">
       <c r="B285" s="11"/>
       <c r="C285" s="11"/>
-      <c r="D285" s="11"/>
-      <c r="E285" s="11"/>
-    </row>
-    <row r="286" spans="2:5">
+    </row>
+    <row r="286" spans="2:3">
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
-      <c r="D286" s="11"/>
-      <c r="E286" s="11"/>
-    </row>
-    <row r="287" spans="2:5">
+    </row>
+    <row r="287" spans="2:3">
       <c r="B287" s="11"/>
       <c r="C287" s="11"/>
-      <c r="D287" s="11"/>
-      <c r="E287" s="11"/>
-    </row>
-    <row r="288" spans="2:5">
+    </row>
+    <row r="288" spans="2:3">
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
-      <c r="D288" s="11"/>
-      <c r="E288" s="11"/>
-    </row>
-    <row r="289" spans="2:5">
+    </row>
+    <row r="289" spans="2:3">
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
-      <c r="D289" s="11"/>
-      <c r="E289" s="11"/>
-    </row>
-    <row r="290" spans="2:5">
+    </row>
+    <row r="290" spans="2:3">
       <c r="B290" s="11"/>
       <c r="C290" s="11"/>
-      <c r="D290" s="11"/>
-      <c r="E290" s="11"/>
-    </row>
-    <row r="291" spans="2:5">
+    </row>
+    <row r="291" spans="2:3">
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
-      <c r="D291" s="11"/>
-      <c r="E291" s="11"/>
-    </row>
-    <row r="292" spans="2:5">
+    </row>
+    <row r="292" spans="2:3">
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
-      <c r="D292" s="11"/>
-      <c r="E292" s="11"/>
-    </row>
-    <row r="293" spans="2:5">
+    </row>
+    <row r="293" spans="2:3">
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
-      <c r="D293" s="11"/>
-      <c r="E293" s="11"/>
-    </row>
-    <row r="294" spans="2:5">
+    </row>
+    <row r="294" spans="2:3">
       <c r="B294" s="11"/>
       <c r="C294" s="11"/>
-      <c r="D294" s="11"/>
-      <c r="E294" s="11"/>
-    </row>
-    <row r="295" spans="2:5">
+    </row>
+    <row r="295" spans="2:3">
       <c r="B295" s="11"/>
       <c r="C295" s="11"/>
-      <c r="D295" s="11"/>
-      <c r="E295" s="11"/>
-    </row>
-    <row r="296" spans="2:5">
+    </row>
+    <row r="296" spans="2:3">
       <c r="B296" s="11"/>
       <c r="C296" s="11"/>
-      <c r="D296" s="11"/>
-      <c r="E296" s="11"/>
-    </row>
-    <row r="297" spans="2:5">
+    </row>
+    <row r="297" spans="2:3">
       <c r="B297" s="11"/>
       <c r="C297" s="11"/>
-      <c r="D297" s="11"/>
-      <c r="E297" s="11"/>
-    </row>
-    <row r="298" spans="2:5">
+    </row>
+    <row r="298" spans="2:3">
       <c r="B298" s="11"/>
       <c r="C298" s="11"/>
-      <c r="D298" s="11"/>
-      <c r="E298" s="11"/>
-    </row>
-    <row r="299" spans="2:5">
+    </row>
+    <row r="299" spans="2:3">
       <c r="B299" s="11"/>
       <c r="C299" s="11"/>
-      <c r="D299" s="11"/>
-      <c r="E299" s="11"/>
-    </row>
-    <row r="300" spans="2:5">
+    </row>
+    <row r="300" spans="2:3">
       <c r="B300" s="11"/>
       <c r="C300" s="11"/>
-      <c r="D300" s="11"/>
-      <c r="E300" s="11"/>
-    </row>
-    <row r="301" spans="2:5">
+    </row>
+    <row r="301" spans="2:3">
       <c r="B301" s="11"/>
       <c r="C301" s="11"/>
-      <c r="D301" s="11"/>
-      <c r="E301" s="11"/>
-    </row>
-    <row r="302" spans="2:5">
+    </row>
+    <row r="302" spans="2:3">
       <c r="B302" s="11"/>
       <c r="C302" s="11"/>
-      <c r="D302" s="11"/>
-      <c r="E302" s="11"/>
-    </row>
-    <row r="303" spans="2:5">
+    </row>
+    <row r="303" spans="2:3">
       <c r="B303" s="11"/>
       <c r="C303" s="11"/>
-      <c r="D303" s="11"/>
-      <c r="E303" s="11"/>
-    </row>
-    <row r="304" spans="2:5">
+    </row>
+    <row r="304" spans="2:3">
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
-      <c r="D304" s="11"/>
-      <c r="E304" s="11"/>
-    </row>
-    <row r="305" spans="2:5">
+    </row>
+    <row r="305" spans="2:3">
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
-      <c r="D305" s="11"/>
-      <c r="E305" s="11"/>
-    </row>
-    <row r="306" spans="2:5">
+    </row>
+    <row r="306" spans="2:3">
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
-      <c r="D306" s="11"/>
-      <c r="E306" s="11"/>
-    </row>
-    <row r="307" spans="2:5">
+    </row>
+    <row r="307" spans="2:3">
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
-      <c r="D307" s="11"/>
-      <c r="E307" s="11"/>
-    </row>
-    <row r="308" spans="2:5">
+    </row>
+    <row r="308" spans="2:3">
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
-      <c r="D308" s="11"/>
-      <c r="E308" s="11"/>
-    </row>
-    <row r="309" spans="2:5">
+    </row>
+    <row r="309" spans="2:3">
       <c r="B309" s="11"/>
       <c r="C309" s="11"/>
-      <c r="D309" s="11"/>
-      <c r="E309" s="11"/>
-    </row>
-    <row r="310" spans="2:5">
+    </row>
+    <row r="310" spans="2:3">
       <c r="B310" s="11"/>
       <c r="C310" s="11"/>
-      <c r="D310" s="11"/>
-      <c r="E310" s="11"/>
-    </row>
-    <row r="311" spans="2:5">
+    </row>
+    <row r="311" spans="2:3">
       <c r="B311" s="11"/>
       <c r="C311" s="11"/>
-      <c r="D311" s="11"/>
-      <c r="E311" s="11"/>
-    </row>
-    <row r="312" spans="2:5">
+    </row>
+    <row r="312" spans="2:3">
       <c r="B312" s="11"/>
       <c r="C312" s="11"/>
-      <c r="D312" s="11"/>
-      <c r="E312" s="11"/>
-    </row>
-    <row r="313" spans="2:5">
+    </row>
+    <row r="313" spans="2:3">
       <c r="B313" s="11"/>
       <c r="C313" s="11"/>
-      <c r="D313" s="11"/>
-      <c r="E313" s="11"/>
-    </row>
-    <row r="314" spans="2:5">
+    </row>
+    <row r="314" spans="2:3">
       <c r="B314" s="11"/>
       <c r="C314" s="11"/>
-      <c r="D314" s="11"/>
-      <c r="E314" s="11"/>
-    </row>
-    <row r="315" spans="2:5">
+    </row>
+    <row r="315" spans="2:3">
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
-      <c r="D315" s="11"/>
-      <c r="E315" s="11"/>
-    </row>
-    <row r="316" spans="2:5">
+    </row>
+    <row r="316" spans="2:3">
       <c r="B316" s="11"/>
       <c r="C316" s="11"/>
-      <c r="D316" s="11"/>
-      <c r="E316" s="11"/>
-    </row>
-    <row r="317" spans="2:5">
+    </row>
+    <row r="317" spans="2:3">
       <c r="B317" s="11"/>
       <c r="C317" s="11"/>
-      <c r="D317" s="11"/>
-      <c r="E317" s="11"/>
-    </row>
-    <row r="318" spans="2:5">
+    </row>
+    <row r="318" spans="2:3">
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
-      <c r="D318" s="11"/>
-      <c r="E318" s="11"/>
-    </row>
-    <row r="319" spans="2:5">
+    </row>
+    <row r="319" spans="2:3">
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
-      <c r="D319" s="11"/>
-      <c r="E319" s="11"/>
-    </row>
-    <row r="320" spans="2:5">
+    </row>
+    <row r="320" spans="2:3">
       <c r="B320" s="11"/>
       <c r="C320" s="11"/>
-      <c r="D320" s="11"/>
-      <c r="E320" s="11"/>
-    </row>
-    <row r="321" spans="2:5">
+    </row>
+    <row r="321" spans="2:3">
       <c r="B321" s="11"/>
       <c r="C321" s="11"/>
-      <c r="D321" s="11"/>
-      <c r="E321" s="11"/>
-    </row>
-    <row r="322" spans="2:5">
+    </row>
+    <row r="322" spans="2:3">
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
-      <c r="D322" s="11"/>
-      <c r="E322" s="11"/>
-    </row>
-    <row r="323" spans="2:5">
+    </row>
+    <row r="323" spans="2:3">
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
-      <c r="D323" s="11"/>
-      <c r="E323" s="11"/>
-    </row>
-    <row r="324" spans="2:5">
+    </row>
+    <row r="324" spans="2:3">
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
-      <c r="D324" s="11"/>
-      <c r="E324" s="11"/>
-    </row>
-    <row r="325" spans="2:5">
+    </row>
+    <row r="325" spans="2:3">
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
-      <c r="D325" s="11"/>
-      <c r="E325" s="11"/>
-    </row>
-    <row r="326" spans="2:5">
+    </row>
+    <row r="326" spans="2:3">
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
-      <c r="D326" s="11"/>
-      <c r="E326" s="11"/>
-    </row>
-    <row r="327" spans="2:5">
+    </row>
+    <row r="327" spans="2:3">
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
-      <c r="D327" s="11"/>
-      <c r="E327" s="11"/>
-    </row>
-    <row r="328" spans="2:5">
+    </row>
+    <row r="328" spans="2:3">
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
-      <c r="D328" s="11"/>
-      <c r="E328" s="11"/>
-    </row>
-    <row r="329" spans="2:5">
+    </row>
+    <row r="329" spans="2:3">
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
-      <c r="D329" s="11"/>
-      <c r="E329" s="11"/>
-    </row>
-    <row r="330" spans="2:5">
+    </row>
+    <row r="330" spans="2:3">
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
-      <c r="D330" s="11"/>
-      <c r="E330" s="11"/>
-    </row>
-    <row r="331" spans="2:5">
+    </row>
+    <row r="331" spans="2:3">
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
-      <c r="D331" s="11"/>
-      <c r="E331" s="11"/>
-    </row>
-    <row r="332" spans="2:5">
+    </row>
+    <row r="332" spans="2:3">
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
-      <c r="D332" s="11"/>
-      <c r="E332" s="11"/>
-    </row>
-    <row r="333" spans="2:5">
+    </row>
+    <row r="333" spans="2:3">
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
-      <c r="D333" s="11"/>
-      <c r="E333" s="11"/>
-    </row>
-    <row r="334" spans="2:5">
+    </row>
+    <row r="334" spans="2:3">
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
-      <c r="D334" s="11"/>
-      <c r="E334" s="11"/>
-    </row>
-    <row r="335" spans="2:5">
+    </row>
+    <row r="335" spans="2:3">
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
-      <c r="D335" s="11"/>
-      <c r="E335" s="11"/>
-    </row>
-    <row r="336" spans="2:5">
+    </row>
+    <row r="336" spans="2:3">
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
-      <c r="D336" s="11"/>
-      <c r="E336" s="11"/>
-    </row>
-    <row r="337" spans="2:5">
+    </row>
+    <row r="337" spans="2:3">
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
-      <c r="D337" s="11"/>
-      <c r="E337" s="11"/>
-    </row>
-    <row r="338" spans="2:5">
+    </row>
+    <row r="338" spans="2:3">
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
-      <c r="D338" s="11"/>
-      <c r="E338" s="11"/>
-    </row>
-    <row r="339" spans="2:5">
+    </row>
+    <row r="339" spans="2:3">
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
-      <c r="D339" s="11"/>
-      <c r="E339" s="11"/>
-    </row>
-    <row r="340" spans="2:5">
+    </row>
+    <row r="340" spans="2:3">
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
-      <c r="D340" s="11"/>
-      <c r="E340" s="11"/>
-    </row>
-    <row r="341" spans="2:5">
+    </row>
+    <row r="341" spans="2:3">
       <c r="B341" s="11"/>
       <c r="C341" s="11"/>
-      <c r="D341" s="11"/>
-      <c r="E341" s="11"/>
-    </row>
-    <row r="342" spans="2:5">
+    </row>
+    <row r="342" spans="2:3">
       <c r="B342" s="11"/>
       <c r="C342" s="11"/>
-      <c r="D342" s="11"/>
-      <c r="E342" s="11"/>
-    </row>
-    <row r="343" spans="2:5">
+    </row>
+    <row r="343" spans="2:3">
       <c r="B343" s="11"/>
       <c r="C343" s="11"/>
-      <c r="D343" s="11"/>
-      <c r="E343" s="11"/>
-    </row>
-    <row r="344" spans="2:5">
+    </row>
+    <row r="344" spans="2:3">
       <c r="B344" s="11"/>
       <c r="C344" s="11"/>
-      <c r="D344" s="11"/>
-      <c r="E344" s="11"/>
-    </row>
-    <row r="345" spans="2:5">
+    </row>
+    <row r="345" spans="2:3">
       <c r="B345" s="11"/>
       <c r="C345" s="11"/>
-      <c r="D345" s="11"/>
-      <c r="E345" s="11"/>
-    </row>
-    <row r="346" spans="2:5">
+    </row>
+    <row r="346" spans="2:3">
       <c r="B346" s="11"/>
       <c r="C346" s="11"/>
-      <c r="D346" s="11"/>
-      <c r="E346" s="11"/>
-    </row>
-    <row r="347" spans="2:5">
+    </row>
+    <row r="347" spans="2:3">
       <c r="B347" s="11"/>
       <c r="C347" s="11"/>
-      <c r="D347" s="11"/>
-      <c r="E347" s="11"/>
-    </row>
-    <row r="348" spans="2:5">
+    </row>
+    <row r="348" spans="2:3">
       <c r="B348" s="11"/>
       <c r="C348" s="11"/>
-      <c r="D348" s="11"/>
-      <c r="E348" s="11"/>
-    </row>
-    <row r="349" spans="2:5">
+    </row>
+    <row r="349" spans="2:3">
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
-      <c r="D349" s="11"/>
-      <c r="E349" s="11"/>
-    </row>
-    <row r="350" spans="2:5">
+    </row>
+    <row r="350" spans="2:3">
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
-      <c r="D350" s="11"/>
-      <c r="E350" s="11"/>
-    </row>
-    <row r="351" spans="2:5">
+    </row>
+    <row r="351" spans="2:3">
       <c r="B351" s="11"/>
       <c r="C351" s="11"/>
-      <c r="D351" s="11"/>
-      <c r="E351" s="11"/>
-    </row>
-    <row r="352" spans="2:5">
+    </row>
+    <row r="352" spans="2:3">
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
-      <c r="D352" s="11"/>
-      <c r="E352" s="11"/>
-    </row>
-    <row r="353" spans="2:5">
+    </row>
+    <row r="353" spans="2:3">
       <c r="B353" s="11"/>
       <c r="C353" s="11"/>
-      <c r="D353" s="11"/>
-      <c r="E353" s="11"/>
-    </row>
-    <row r="354" spans="2:5">
+    </row>
+    <row r="354" spans="2:3">
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
-      <c r="D354" s="11"/>
-      <c r="E354" s="11"/>
-    </row>
-    <row r="355" spans="2:5">
+    </row>
+    <row r="355" spans="2:3">
       <c r="B355" s="11"/>
       <c r="C355" s="11"/>
-      <c r="D355" s="11"/>
-      <c r="E355" s="11"/>
-    </row>
-    <row r="356" spans="2:5">
+    </row>
+    <row r="356" spans="2:3">
       <c r="B356" s="11"/>
       <c r="C356" s="11"/>
-      <c r="D356" s="11"/>
-      <c r="E356" s="11"/>
-    </row>
-    <row r="357" spans="2:5">
+    </row>
+    <row r="357" spans="2:3">
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
-      <c r="D357" s="11"/>
-      <c r="E357" s="11"/>
-    </row>
-    <row r="358" spans="2:5">
+    </row>
+    <row r="358" spans="2:3">
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
-      <c r="D358" s="11"/>
-      <c r="E358" s="11"/>
-    </row>
-    <row r="359" spans="2:5">
+    </row>
+    <row r="359" spans="2:3">
       <c r="B359" s="11"/>
       <c r="C359" s="11"/>
-      <c r="D359" s="11"/>
-      <c r="E359" s="11"/>
-    </row>
-    <row r="360" spans="2:5">
+    </row>
+    <row r="360" spans="2:3">
       <c r="B360" s="11"/>
       <c r="C360" s="11"/>
-      <c r="D360" s="11"/>
-      <c r="E360" s="11"/>
-    </row>
-    <row r="361" spans="2:5">
+    </row>
+    <row r="361" spans="2:3">
       <c r="B361" s="11"/>
       <c r="C361" s="11"/>
-      <c r="D361" s="11"/>
-      <c r="E361" s="11"/>
-    </row>
-    <row r="362" spans="2:5">
+    </row>
+    <row r="362" spans="2:3">
       <c r="B362" s="11"/>
       <c r="C362" s="11"/>
-      <c r="D362" s="11"/>
-      <c r="E362" s="11"/>
-    </row>
-    <row r="363" spans="2:5">
+    </row>
+    <row r="363" spans="2:3">
       <c r="B363" s="11"/>
       <c r="C363" s="11"/>
-      <c r="D363" s="11"/>
-      <c r="E363" s="11"/>
-    </row>
-    <row r="364" spans="2:5">
+    </row>
+    <row r="364" spans="2:3">
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
-      <c r="D364" s="11"/>
-      <c r="E364" s="11"/>
-    </row>
-    <row r="365" spans="2:5">
+    </row>
+    <row r="365" spans="2:3">
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
-      <c r="D365" s="11"/>
-      <c r="E365" s="11"/>
-    </row>
-    <row r="366" spans="2:5">
+    </row>
+    <row r="366" spans="2:3">
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
-      <c r="D366" s="11"/>
-      <c r="E366" s="11"/>
-    </row>
-    <row r="367" spans="2:5">
+    </row>
+    <row r="367" spans="2:3">
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
-      <c r="D367" s="11"/>
-      <c r="E367" s="11"/>
-    </row>
-    <row r="368" spans="2:5">
+    </row>
+    <row r="368" spans="2:3">
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
-      <c r="D368" s="11"/>
-      <c r="E368" s="11"/>
-    </row>
-    <row r="369" spans="2:5">
+    </row>
+    <row r="369" spans="2:3">
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
-      <c r="D369" s="11"/>
-      <c r="E369" s="11"/>
-    </row>
-    <row r="370" spans="2:5">
+    </row>
+    <row r="370" spans="2:3">
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
-      <c r="D370" s="11"/>
-      <c r="E370" s="11"/>
-    </row>
-    <row r="371" spans="2:5">
+    </row>
+    <row r="371" spans="2:3">
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
-      <c r="D371" s="11"/>
-      <c r="E371" s="11"/>
-    </row>
-    <row r="372" spans="2:5">
+    </row>
+    <row r="372" spans="2:3">
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
-      <c r="D372" s="11"/>
-      <c r="E372" s="11"/>
-    </row>
-    <row r="373" spans="2:5">
+    </row>
+    <row r="373" spans="2:3">
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
-      <c r="D373" s="11"/>
-      <c r="E373" s="11"/>
-    </row>
-    <row r="374" spans="2:5">
+    </row>
+    <row r="374" spans="2:3">
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
-      <c r="D374" s="11"/>
-      <c r="E374" s="11"/>
-    </row>
-    <row r="375" spans="2:5">
+    </row>
+    <row r="375" spans="2:3">
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
-      <c r="D375" s="11"/>
-      <c r="E375" s="11"/>
-    </row>
-    <row r="376" spans="2:5">
+    </row>
+    <row r="376" spans="2:3">
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
-      <c r="D376" s="11"/>
-      <c r="E376" s="11"/>
-    </row>
-    <row r="377" spans="2:5">
+    </row>
+    <row r="377" spans="2:3">
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
-      <c r="D377" s="11"/>
-      <c r="E377" s="11"/>
-    </row>
-    <row r="378" spans="2:5">
+    </row>
+    <row r="378" spans="2:3">
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
-      <c r="D378" s="11"/>
-      <c r="E378" s="11"/>
-    </row>
-    <row r="379" spans="2:5">
+    </row>
+    <row r="379" spans="2:3">
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
-      <c r="D379" s="11"/>
-      <c r="E379" s="11"/>
-    </row>
-    <row r="380" spans="2:5">
+    </row>
+    <row r="380" spans="2:3">
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
-      <c r="D380" s="11"/>
-      <c r="E380" s="11"/>
-    </row>
-    <row r="381" spans="2:5">
+    </row>
+    <row r="381" spans="2:3">
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
-      <c r="D381" s="11"/>
-      <c r="E381" s="11"/>
-    </row>
-    <row r="382" spans="2:5">
+    </row>
+    <row r="382" spans="2:3">
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
-      <c r="D382" s="11"/>
-      <c r="E382" s="11"/>
-    </row>
-    <row r="383" spans="2:5">
+    </row>
+    <row r="383" spans="2:3">
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
-      <c r="D383" s="11"/>
-      <c r="E383" s="11"/>
-    </row>
-    <row r="384" spans="2:5">
+    </row>
+    <row r="384" spans="2:3">
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
-      <c r="D384" s="11"/>
-      <c r="E384" s="11"/>
-    </row>
-    <row r="385" spans="2:5">
+    </row>
+    <row r="385" spans="2:3">
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
-      <c r="D385" s="11"/>
-      <c r="E385" s="11"/>
-    </row>
-    <row r="386" spans="2:5">
+    </row>
+    <row r="386" spans="2:3">
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
-      <c r="D386" s="11"/>
-      <c r="E386" s="11"/>
-    </row>
-    <row r="387" spans="2:5">
+    </row>
+    <row r="387" spans="2:3">
       <c r="B387" s="11"/>
       <c r="C387" s="11"/>
-      <c r="D387" s="11"/>
-      <c r="E387" s="11"/>
-    </row>
-    <row r="388" spans="2:5">
+    </row>
+    <row r="388" spans="2:3">
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
-      <c r="D388" s="11"/>
-      <c r="E388" s="11"/>
-    </row>
-    <row r="389" spans="2:5">
+    </row>
+    <row r="389" spans="2:3">
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
-      <c r="D389" s="11"/>
-      <c r="E389" s="11"/>
-    </row>
-    <row r="390" spans="2:5">
+    </row>
+    <row r="390" spans="2:3">
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
-      <c r="D390" s="11"/>
-      <c r="E390" s="11"/>
-    </row>
-    <row r="391" spans="2:5">
+    </row>
+    <row r="391" spans="2:3">
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
-      <c r="D391" s="11"/>
-      <c r="E391" s="11"/>
-    </row>
-    <row r="392" spans="2:5">
+    </row>
+    <row r="392" spans="2:3">
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
-      <c r="D392" s="11"/>
-      <c r="E392" s="11"/>
-    </row>
-    <row r="393" spans="2:5">
+    </row>
+    <row r="393" spans="2:3">
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
-      <c r="D393" s="11"/>
-      <c r="E393" s="11"/>
-    </row>
-    <row r="394" spans="2:5">
+    </row>
+    <row r="394" spans="2:3">
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
-      <c r="D394" s="11"/>
-      <c r="E394" s="11"/>
-    </row>
-    <row r="395" spans="2:5">
+    </row>
+    <row r="395" spans="2:3">
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
-      <c r="D395" s="11"/>
-      <c r="E395" s="11"/>
-    </row>
-    <row r="396" spans="2:5">
+    </row>
+    <row r="396" spans="2:3">
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
-      <c r="D396" s="11"/>
-      <c r="E396" s="11"/>
-    </row>
-    <row r="397" spans="2:5">
+    </row>
+    <row r="397" spans="2:3">
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
-      <c r="D397" s="11"/>
-      <c r="E397" s="11"/>
-    </row>
-    <row r="398" spans="2:5">
+    </row>
+    <row r="398" spans="2:3">
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
-      <c r="D398" s="11"/>
-      <c r="E398" s="11"/>
-    </row>
-    <row r="399" spans="2:5">
+    </row>
+    <row r="399" spans="2:3">
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
-      <c r="D399" s="11"/>
-      <c r="E399" s="11"/>
-    </row>
-    <row r="400" spans="2:5">
+    </row>
+    <row r="400" spans="2:3">
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
-      <c r="D400" s="11"/>
-      <c r="E400" s="11"/>
-    </row>
-    <row r="401" spans="2:5">
+    </row>
+    <row r="401" spans="2:3">
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
-      <c r="D401" s="11"/>
-      <c r="E401" s="11"/>
-    </row>
-    <row r="402" spans="2:5">
+    </row>
+    <row r="402" spans="2:3">
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
-      <c r="D402" s="11"/>
-      <c r="E402" s="11"/>
-    </row>
-    <row r="403" spans="2:5">
+    </row>
+    <row r="403" spans="2:3">
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
-      <c r="D403" s="11"/>
-      <c r="E403" s="11"/>
-    </row>
-    <row r="404" spans="2:5">
+    </row>
+    <row r="404" spans="2:3">
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
-      <c r="D404" s="11"/>
-      <c r="E404" s="11"/>
-    </row>
-    <row r="405" spans="2:5">
+    </row>
+    <row r="405" spans="2:3">
       <c r="B405" s="11"/>
       <c r="C405" s="11"/>
-      <c r="D405" s="11"/>
-      <c r="E405" s="11"/>
-    </row>
-    <row r="406" spans="2:5">
+    </row>
+    <row r="406" spans="2:3">
       <c r="B406" s="11"/>
       <c r="C406" s="11"/>
-      <c r="D406" s="11"/>
-      <c r="E406" s="11"/>
-    </row>
-    <row r="407" spans="2:5">
+    </row>
+    <row r="407" spans="2:3">
       <c r="B407" s="11"/>
       <c r="C407" s="11"/>
-      <c r="D407" s="11"/>
-      <c r="E407" s="11"/>
-    </row>
-    <row r="408" spans="2:5">
+    </row>
+    <row r="408" spans="2:3">
       <c r="B408" s="11"/>
       <c r="C408" s="11"/>
-      <c r="D408" s="11"/>
-      <c r="E408" s="11"/>
-    </row>
-    <row r="409" spans="2:5">
+    </row>
+    <row r="409" spans="2:3">
       <c r="B409" s="11"/>
       <c r="C409" s="11"/>
-      <c r="D409" s="11"/>
-      <c r="E409" s="11"/>
-    </row>
-    <row r="410" spans="2:5">
+    </row>
+    <row r="410" spans="2:3">
       <c r="B410" s="11"/>
       <c r="C410" s="11"/>
-      <c r="D410" s="11"/>
-      <c r="E410" s="11"/>
-    </row>
-    <row r="411" spans="2:5">
+    </row>
+    <row r="411" spans="2:3">
       <c r="B411" s="11"/>
       <c r="C411" s="11"/>
-      <c r="D411" s="11"/>
-      <c r="E411" s="11"/>
-    </row>
-    <row r="412" spans="2:5">
+    </row>
+    <row r="412" spans="2:3">
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
-      <c r="D412" s="11"/>
-      <c r="E412" s="11"/>
-    </row>
-    <row r="413" spans="2:5">
+    </row>
+    <row r="413" spans="2:3">
       <c r="B413" s="11"/>
       <c r="C413" s="11"/>
-      <c r="D413" s="11"/>
-      <c r="E413" s="11"/>
-    </row>
-    <row r="414" spans="2:5">
+    </row>
+    <row r="414" spans="2:3">
       <c r="B414" s="11"/>
       <c r="C414" s="11"/>
-      <c r="D414" s="11"/>
-      <c r="E414" s="11"/>
-    </row>
-    <row r="415" spans="2:5">
+    </row>
+    <row r="415" spans="2:3">
       <c r="B415" s="11"/>
       <c r="C415" s="11"/>
-      <c r="D415" s="11"/>
-      <c r="E415" s="11"/>
-    </row>
-    <row r="416" spans="2:5">
+    </row>
+    <row r="416" spans="2:3">
       <c r="B416" s="11"/>
       <c r="C416" s="11"/>
-      <c r="D416" s="11"/>
-      <c r="E416" s="11"/>
-    </row>
-    <row r="417" spans="2:5">
+    </row>
+    <row r="417" spans="2:3">
       <c r="B417" s="11"/>
       <c r="C417" s="11"/>
-      <c r="D417" s="11"/>
-      <c r="E417" s="11"/>
-    </row>
-    <row r="418" spans="2:5">
+    </row>
+    <row r="418" spans="2:3">
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
-      <c r="D418" s="11"/>
-      <c r="E418" s="11"/>
-    </row>
-    <row r="419" spans="2:5">
+    </row>
+    <row r="419" spans="2:3">
       <c r="B419" s="11"/>
       <c r="C419" s="11"/>
-      <c r="D419" s="11"/>
-      <c r="E419" s="11"/>
-    </row>
-    <row r="420" spans="2:5">
+    </row>
+    <row r="420" spans="2:3">
       <c r="B420" s="11"/>
       <c r="C420" s="11"/>
-      <c r="D420" s="11"/>
-      <c r="E420" s="11"/>
-    </row>
-    <row r="421" spans="2:5">
+    </row>
+    <row r="421" spans="2:3">
       <c r="B421" s="11"/>
       <c r="C421" s="11"/>
-      <c r="D421" s="11"/>
-      <c r="E421" s="11"/>
-    </row>
-    <row r="422" spans="2:5">
+    </row>
+    <row r="422" spans="2:3">
       <c r="B422" s="11"/>
       <c r="C422" s="11"/>
-      <c r="D422" s="11"/>
-      <c r="E422" s="11"/>
-    </row>
-    <row r="423" spans="2:5">
+    </row>
+    <row r="423" spans="2:3">
       <c r="B423" s="11"/>
       <c r="C423" s="11"/>
-      <c r="D423" s="11"/>
-      <c r="E423" s="11"/>
-    </row>
-    <row r="424" spans="2:5">
+    </row>
+    <row r="424" spans="2:3">
       <c r="B424" s="11"/>
       <c r="C424" s="11"/>
-      <c r="D424" s="11"/>
-      <c r="E424" s="11"/>
-    </row>
-    <row r="425" spans="2:5">
+    </row>
+    <row r="425" spans="2:3">
       <c r="B425" s="11"/>
       <c r="C425" s="11"/>
-      <c r="D425" s="11"/>
-      <c r="E425" s="11"/>
-    </row>
-    <row r="426" spans="2:5">
+    </row>
+    <row r="426" spans="2:3">
       <c r="B426" s="11"/>
       <c r="C426" s="11"/>
-      <c r="D426" s="11"/>
-      <c r="E426" s="11"/>
-    </row>
-    <row r="427" spans="2:5">
+    </row>
+    <row r="427" spans="2:3">
       <c r="B427" s="11"/>
       <c r="C427" s="11"/>
-      <c r="D427" s="11"/>
-      <c r="E427" s="11"/>
-    </row>
-    <row r="428" spans="2:5">
+    </row>
+    <row r="428" spans="2:3">
       <c r="B428" s="11"/>
       <c r="C428" s="11"/>
-      <c r="D428" s="11"/>
-      <c r="E428" s="11"/>
-    </row>
-    <row r="429" spans="2:5">
+    </row>
+    <row r="429" spans="2:3">
       <c r="B429" s="11"/>
       <c r="C429" s="11"/>
-      <c r="D429" s="11"/>
-      <c r="E429" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
